--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthly.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectMonthly.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8200"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BV$635</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$BW$635</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="182">
   <si>
     <t>{{Title}}</t>
+  </si>
+  <si>
+    <t>项目主数据编码</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -478,6 +481,9 @@
   </si>
   <si>
     <t>g-G</t>
+  </si>
+  <si>
+    <t>{{MonthtreportData.MdmCode}}</t>
   </si>
   <si>
     <t>{{MonthtreportData.Name}}</t>
@@ -1133,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1148,6 +1154,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1177,6 +1207,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1306,7 +1349,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1318,34 +1361,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
@@ -1430,38 +1473,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,6 +1516,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,9 +1526,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1537,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1868,1068 +1917,1079 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV5551"/>
+  <dimension ref="A1:BW5551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.6363636363636" style="3" customWidth="1"/>
-    <col min="2" max="3" width="20.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="14.3636363636364" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="13.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.1363636363636" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7545454545455" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.3636363636364" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.8636363636364" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.2545454545455" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.1363636363636" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.6363636363636" style="4"/>
-    <col min="16" max="16" width="13.7545454545455" style="4"/>
-    <col min="17" max="17" width="15.8636363636364" style="4" customWidth="1"/>
-    <col min="18" max="23" width="9" style="4"/>
-    <col min="24" max="24" width="16.8181818181818" style="4" customWidth="1"/>
-    <col min="25" max="25" width="28.3636363636364" style="4" customWidth="1"/>
-    <col min="26" max="37" width="9" style="4"/>
-    <col min="38" max="39" width="9" style="3"/>
-    <col min="40" max="40" width="9" style="4"/>
-    <col min="41" max="41" width="14.8636363636364" style="4" customWidth="1"/>
-    <col min="42" max="42" width="13" style="4" customWidth="1"/>
-    <col min="43" max="53" width="9" style="4"/>
-    <col min="54" max="55" width="9" style="3"/>
-    <col min="56" max="56" width="29.7545454545455" style="3" customWidth="1"/>
-    <col min="57" max="57" width="29.6363636363636" style="3" customWidth="1"/>
-    <col min="58" max="59" width="9" style="3"/>
-    <col min="60" max="60" width="29.3636363636364" style="3" customWidth="1"/>
-    <col min="61" max="61" width="27.2545454545455" style="3" customWidth="1"/>
-    <col min="62" max="62" width="38.8636363636364" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9" style="3"/>
-    <col min="64" max="64" width="15.8636363636364" style="3" customWidth="1"/>
-    <col min="65" max="66" width="9" style="3"/>
-    <col min="67" max="67" width="16.1363636363636" style="3" customWidth="1"/>
-    <col min="68" max="68" width="12.2545454545455" style="3" customWidth="1"/>
-    <col min="69" max="69" width="16.1363636363636" style="3" customWidth="1"/>
-    <col min="70" max="70" width="32.1363636363636" style="3" customWidth="1"/>
-    <col min="71" max="71" width="16.1363636363636" style="3" customWidth="1"/>
-    <col min="72" max="72" width="20.7545454545455" style="3" customWidth="1"/>
-    <col min="73" max="73" width="21" style="3" customWidth="1"/>
-    <col min="74" max="74" width="24.6363636363636" style="3" customWidth="1"/>
-    <col min="75" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.6333333333333" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="14.3666666666667" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.1333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.7583333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.3666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.2583333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.1333333333333" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.6333333333333" style="4"/>
+    <col min="17" max="17" width="13.7583333333333" style="4"/>
+    <col min="18" max="18" width="15.8666666666667" style="4" customWidth="1"/>
+    <col min="19" max="24" width="9" style="4"/>
+    <col min="25" max="25" width="16.8166666666667" style="4" customWidth="1"/>
+    <col min="26" max="26" width="28.3666666666667" style="4" customWidth="1"/>
+    <col min="27" max="38" width="9" style="4"/>
+    <col min="39" max="40" width="9" style="3"/>
+    <col min="41" max="41" width="9" style="4"/>
+    <col min="42" max="42" width="14.8666666666667" style="4" customWidth="1"/>
+    <col min="43" max="43" width="13" style="4" customWidth="1"/>
+    <col min="44" max="54" width="9" style="4"/>
+    <col min="55" max="56" width="9" style="3"/>
+    <col min="57" max="57" width="29.7583333333333" style="3" customWidth="1"/>
+    <col min="58" max="58" width="29.6333333333333" style="3" customWidth="1"/>
+    <col min="59" max="60" width="9" style="3"/>
+    <col min="61" max="61" width="29.3666666666667" style="3" customWidth="1"/>
+    <col min="62" max="62" width="27.2583333333333" style="3" customWidth="1"/>
+    <col min="63" max="63" width="38.8666666666667" style="3" customWidth="1"/>
+    <col min="64" max="64" width="9" style="3"/>
+    <col min="65" max="65" width="15.8666666666667" style="3" customWidth="1"/>
+    <col min="66" max="67" width="9" style="3"/>
+    <col min="68" max="68" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="69" max="69" width="12.2583333333333" style="3" customWidth="1"/>
+    <col min="70" max="70" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="71" max="71" width="32.1333333333333" style="3" customWidth="1"/>
+    <col min="72" max="72" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="73" max="73" width="20.7583333333333" style="3" customWidth="1"/>
+    <col min="74" max="74" width="21" style="3" customWidth="1"/>
+    <col min="75" max="75" width="24.6333333333333" style="3" customWidth="1"/>
+    <col min="76" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" spans="1:74">
+    <row r="1" s="1" customFormat="1" ht="24.75" spans="1:75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="27"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:74">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:75">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="6" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="13" t="s">
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13" t="s">
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="22" t="s">
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="23" t="s">
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="BI2" s="22" t="s">
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="BK2" s="13" t="s">
+      <c r="BK2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13" t="s">
+      <c r="BL2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="21" t="s">
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BR2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BS2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BT2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BU2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BV2" s="25" t="s">
         <v>27</v>
       </c>
+      <c r="BW2" s="25" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.5" spans="1:74">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:75">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="13" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13" t="s">
+      <c r="AG3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AP3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13" t="s">
+      <c r="AQ3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="14" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="22"/>
+      <c r="BB3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
       <c r="BG3" s="22"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="21"/>
-      <c r="BS3" s="21"/>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="17" customHeight="1" spans="1:74">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="4" s="2" customFormat="1" ht="17" customHeight="1" spans="1:75">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="13" t="s">
+      <c r="W4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="X4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AB4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AI4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AI4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AL4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AM4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="13" t="s">
+      <c r="AN4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AR4" s="13" t="s">
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AS4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AT4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AU4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AV4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AW4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AX4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="AY4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC4" s="13" t="s">
+      <c r="AZ4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BD4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BD4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="BF4" s="22" t="s">
+      <c r="BF4" s="14" t="s">
         <v>78</v>
       </c>
       <c r="BG4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="13" t="s">
+      <c r="BH4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="BL4" s="13" t="s">
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BM4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN4" s="13" t="s">
+      <c r="BM4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BO4" s="21"/>
-      <c r="BP4" s="21"/>
-      <c r="BQ4" s="21"/>
-      <c r="BR4" s="21"/>
-      <c r="BS4" s="21"/>
-      <c r="BT4" s="21"/>
-      <c r="BU4" s="21"/>
-      <c r="BV4" s="21"/>
+      <c r="BO4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="22" customHeight="1" spans="1:74">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
+    <row r="5" s="2" customFormat="1" ht="22" customHeight="1" spans="1:75">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="21"/>
-      <c r="BP5" s="21"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="21"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="21"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
+      <c r="BU5" s="25"/>
+      <c r="BV5" s="25"/>
+      <c r="BW5" s="25"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="29" spans="1:74">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+    <row r="6" s="2" customFormat="1" ht="16.5" spans="2:75">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="13" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" s="13" t="s">
+      <c r="U6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13" t="s">
+      <c r="X6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13" t="s">
+      <c r="AC6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="16" t="s">
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="14" t="s">
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AO6" s="14" t="s">
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="AP6" s="14" t="s">
+      <c r="AP6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="AQ6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AR6" s="13" t="s">
+      <c r="AR6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AS6" s="13" t="s">
+      <c r="AS6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AT6" s="13" t="s">
+      <c r="AT6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AU6" s="13" t="s">
+      <c r="AU6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AV6" s="13" t="s">
+      <c r="AV6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AW6" s="13" t="s">
+      <c r="AW6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AX6" s="13" t="s">
+      <c r="AX6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AY6" s="13" t="s">
+      <c r="AY6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AZ6" s="18" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="BA6" s="14" t="s">
+      <c r="BA6" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="BB6" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC6" s="20"/>
+      <c r="BB6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC6" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
       <c r="BJ6" s="25"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
       <c r="BO6" s="25"/>
-      <c r="BP6" s="25"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="26"/>
+      <c r="BS6" s="26"/>
+      <c r="BT6" s="26"/>
+      <c r="BU6" s="26"/>
       <c r="BV6" s="26"/>
+      <c r="BW6" s="28"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="16.5" spans="1:74">
-      <c r="A7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="1:75">
+      <c r="A7" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="Q7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="S7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="U7" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="V7" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="W7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="X7" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Y7" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AA7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AB7" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AC7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AD7" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AE7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AG7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AH7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AI7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AJ7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AK7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AL7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AM7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AN7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AP7" s="12" t="s">
+      <c r="AO7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AP7" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AR7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AS7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AT7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AU7" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AV7" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AW7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AY7" s="12" t="s">
+      <c r="AX7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="AZ7" s="12" t="s">
+      <c r="AY7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BA7" s="12" t="s">
+      <c r="AZ7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BB7" s="12" t="s">
+      <c r="BA7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BB7" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BC7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BD7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BF7" s="12" t="s">
+      <c r="BE7" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="BG7" s="12" t="s">
+      <c r="BF7" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="BH7" s="12" t="s">
+      <c r="BG7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BI7" s="12" t="s">
+      <c r="BH7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BI7" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BJ7" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="BL7" s="12" t="s">
+      <c r="BK7" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="BM7" s="12" t="s">
+      <c r="BL7" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BM7" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="BO7" s="12" t="s">
+      <c r="BN7" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="BP7" s="12" t="s">
+      <c r="BO7" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="BQ7" s="12" t="s">
+      <c r="BP7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="BR7" s="12" t="s">
+      <c r="BQ7" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="BS7" s="12" t="s">
+      <c r="BR7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="BT7" s="12" t="s">
+      <c r="BS7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BT7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="BV7" s="12" t="s">
+      <c r="BU7" s="13" t="s">
         <v>179</v>
       </c>
+      <c r="BV7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BW7" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="16.5" spans="1:74">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:75">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
+      <c r="BW8" s="13"/>
     </row>
     <row r="9" s="3" customFormat="1"/>
     <row r="10" s="3" customFormat="1"/>
@@ -8475,24 +8535,24 @@
     <row r="5550" s="3" customFormat="1"/>
     <row r="5551" s="3" customFormat="1"/>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="A1:BV1"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AN2:BA2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
+  <mergeCells count="97">
+    <mergeCell ref="A1:BW1"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AO2:BB2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -8500,18 +8560,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N2:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U3:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
@@ -8520,9 +8580,9 @@
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
@@ -8530,10 +8590,10 @@
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO3:AO5"/>
     <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AQ3:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AT4:AT5"/>
@@ -8542,22 +8602,22 @@
     <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AZ3:AZ5"/>
+    <mergeCell ref="AZ4:AZ5"/>
     <mergeCell ref="BA3:BA5"/>
-    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BB3:BB5"/>
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="BI2:BI5"/>
     <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BK2:BK5"/>
     <mergeCell ref="BL4:BL5"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BO4:BO5"/>
     <mergeCell ref="BP2:BP5"/>
     <mergeCell ref="BQ2:BQ5"/>
     <mergeCell ref="BR2:BR5"/>
@@ -8565,141 +8625,147 @@
     <mergeCell ref="BT2:BT5"/>
     <mergeCell ref="BU2:BU5"/>
     <mergeCell ref="BV2:BV5"/>
-    <mergeCell ref="AL2:AM3"/>
-    <mergeCell ref="BB2:BC3"/>
-    <mergeCell ref="BD2:BE3"/>
-    <mergeCell ref="BF2:BG3"/>
-    <mergeCell ref="BK2:BL3"/>
-    <mergeCell ref="BM2:BN3"/>
-    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="BW2:BW5"/>
+    <mergeCell ref="BL2:BM3"/>
+    <mergeCell ref="BN2:BO3"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="BC2:BD3"/>
+    <mergeCell ref="BE2:BF3"/>
+    <mergeCell ref="BG2:BH3"/>
+    <mergeCell ref="D2:J3"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="cellIs" dxfId="0" priority="29" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="cellIs" dxfId="0" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4">
+  <conditionalFormatting sqref="AN4">
+    <cfRule type="cellIs" dxfId="0" priority="33" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD4">
+    <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:Z6">
+    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:Y6">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6:AD6">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI6">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL6">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA6">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q5">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T5">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="greaterThan">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X5">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4">
+  <conditionalFormatting sqref="AC4:AC5">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4:AT5">
+    <cfRule type="cellIs" dxfId="0" priority="18" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4:AW5">
+    <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ4:AZ5">
+    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4 AM2">
+    <cfRule type="cellIs" dxfId="0" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4 BC2">
     <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="AI4:AI5 AL4:AL5">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:Y6">
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:X6">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AC6">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH6">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK6">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ6">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S5">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W5">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="31" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB5">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
-      <formula>3000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS4:AS5">
-    <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4:AV5">
-    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY4:AY5">
-    <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4 AL2">
-    <cfRule type="cellIs" dxfId="0" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB4 BB2">
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH4:AH5 AK4:AK5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:BV1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B7:BW1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6 BB6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6 BC6">
       <formula1>"甲方原因,我方原因,他方原因,不可抗力"</formula1>
     </dataValidation>
   </dataValidations>
